--- a/code/toLua/test.xlsx
+++ b/code/toLua/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27600" windowHeight="11640"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>num</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,34]</t>
+  </si>
+  <si>
+    <t>hxp</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp2"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp2"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,35]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp3"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp3"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,36]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp4"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp4"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,37]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp5"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp5"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,38]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp6"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp6"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,39]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp7"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp7"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,40]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp8"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp8"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,41]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp9"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp9"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,42]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp10"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp10"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,43]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp11"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp11"]]</t>
+  </si>
+  <si>
+    <t>[[12,17],[12,44]</t>
+  </si>
+  <si>
+    <t>["hxp1","hxp12"]</t>
+  </si>
+  <si>
+    <t>[["hxp1","hxp2"],["hxp1","hxp12"]]</t>
   </si>
 </sst>
 </file>
@@ -27,13 +141,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +158,51 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -57,45 +216,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,51 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +255,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -170,6 +272,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -184,17 +293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,25 +309,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,31 +435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,115 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +508,56 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,58 +595,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,159 +605,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,6 +810,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -997,115 +1099,263 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="F4" sqref="F4:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="37.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="16" customHeight="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B14" s="1">
         <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
